--- a/data/trans_dic/CoPsoQ_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/CoPsoQ_R-Estudios-trans_dic.xlsx
@@ -646,7 +646,7 @@
         <v>0.2341372364321539</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.4859322786399261</v>
+        <v>0.4859322786399263</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>0.3787791564070026</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2332730684850835</v>
+        <v>0.2302925758569739</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1677249984603689</v>
+        <v>0.1689237120158008</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2871215329465892</v>
+        <v>0.2903351175989232</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.2939190339216285</v>
+        <v>0.3003934162879808</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1933847366510291</v>
+        <v>0.2019229799464337</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.121259185483074</v>
+        <v>0.1315757913863224</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.2772306869429492</v>
+        <v>0.2824058190643445</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1910758073593173</v>
+        <v>0.1945439350275884</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.2891667171321589</v>
+        <v>0.2717122185632829</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.364567921400748</v>
+        <v>0.3715752101228425</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3092639719104901</v>
+        <v>0.311358274689808</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.6986992755693837</v>
+        <v>0.6748741993078231</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.4691406656951865</v>
+        <v>0.461357456414209</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.4248994141634865</v>
+        <v>0.4253766970239048</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.4359401105454663</v>
+        <v>0.4496468278277702</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.387803875459457</v>
+        <v>0.3909945837809659</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.3113164323375545</v>
+        <v>0.316150870727034</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.5637018975030724</v>
+        <v>0.5650717159640496</v>
       </c>
     </row>
     <row r="7">
@@ -755,7 +755,7 @@
         <v>0.2230984751669416</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.3026050128070498</v>
+        <v>0.3026050128070499</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>0.2206558443970766</v>
@@ -764,7 +764,7 @@
         <v>0.2178227329646633</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>0.2573643387417521</v>
+        <v>0.257364338741752</v>
       </c>
       <c r="I7" s="5" t="n">
         <v>0.2298731508629096</v>
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.204880542296163</v>
+        <v>0.2065200655224753</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1932359378634344</v>
+        <v>0.197762350155539</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2466398507717594</v>
+        <v>0.2421638516842056</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1841555441397252</v>
+        <v>0.1861881554665706</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1854990006892967</v>
+        <v>0.1859878396997197</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2146830208922482</v>
+        <v>0.2123164058923453</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.2057656888015354</v>
+        <v>0.2091711482203257</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.2008565002053393</v>
+        <v>0.2000396754737453</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.2446676545633219</v>
+        <v>0.2435832452954263</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2660563594401674</v>
+        <v>0.2683567502173047</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2506110200659297</v>
+        <v>0.2514195295731562</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3688382187409037</v>
+        <v>0.3706507529908989</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2549864467539544</v>
+        <v>0.2552447464491456</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2535500392792376</v>
+        <v>0.2514465363938925</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3149490764792253</v>
+        <v>0.3144587239768634</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.2532938480672972</v>
+        <v>0.2543786837495797</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2420698205240596</v>
+        <v>0.2452834809025375</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.3276066140703482</v>
+        <v>0.3290979329136494</v>
       </c>
     </row>
     <row r="10">
@@ -873,7 +873,7 @@
         <v>0.2412605637802078</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.3959799260264013</v>
+        <v>0.3959799260264012</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>0.169643977455493</v>
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1143695792028433</v>
+        <v>0.1154516361244903</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1849791724572584</v>
+        <v>0.1802593240755485</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2471699430199369</v>
+        <v>0.2547893155103307</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1338137979103901</v>
+        <v>0.139994635108701</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1931869426966354</v>
+        <v>0.1951878942789923</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.3193754454735616</v>
+        <v>0.3145174886978222</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1358292171670142</v>
+        <v>0.1376037023548348</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.198915248118569</v>
+        <v>0.1997404310094728</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.296823154126176</v>
+        <v>0.2986595988814395</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2026770077143543</v>
+        <v>0.2073666558947649</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2750114648063948</v>
+        <v>0.2761858087028408</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.4278679958517572</v>
+        <v>0.4355311297026448</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2524608426729429</v>
+        <v>0.2500031368657566</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2890312914519185</v>
+        <v>0.2921881610643619</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.4900717575224519</v>
+        <v>0.4862921569804665</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2059406507756327</v>
+        <v>0.203825376110152</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.266156867958882</v>
+        <v>0.2724039098837536</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.4285238754211446</v>
+        <v>0.4275428216693627</v>
       </c>
     </row>
     <row r="13">
@@ -982,7 +982,7 @@
         <v>0.2301596886049372</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>0.2989929277197984</v>
+        <v>0.2989929277197983</v>
       </c>
       <c r="I13" s="5" t="n">
         <v>0.2296505647759662</v>
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2046814377925514</v>
+        <v>0.2018199175711558</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2038245429593187</v>
+        <v>0.203061623227767</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2780832708885587</v>
+        <v>0.2785707558440085</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.209287263432721</v>
+        <v>0.2092632799427085</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2014675597347423</v>
+        <v>0.2048463438951109</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2567765467746382</v>
+        <v>0.256000868462268</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.2125823582385226</v>
+        <v>0.2118307115462754</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.2101712401180721</v>
+        <v>0.2096861902722099</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.2780213319420105</v>
+        <v>0.282694378855559</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2520420886520174</v>
+        <v>0.2489918715373111</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2490623277067265</v>
+        <v>0.2495329817246691</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3782820788396898</v>
+        <v>0.3776724581762587</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2628830674101534</v>
+        <v>0.2627750785074418</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2532223862582365</v>
+        <v>0.2575514894889884</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3444009797154803</v>
+        <v>0.3423619537015343</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2486293699008288</v>
+        <v>0.2476070142448845</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2451762325773082</v>
+        <v>0.2454818852999024</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.3514119636645786</v>
+        <v>0.3496333964440726</v>
       </c>
     </row>
     <row r="16">
@@ -1289,31 +1289,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>41443</v>
+        <v>40914</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>23699</v>
+        <v>23869</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>11736</v>
+        <v>11868</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>39081</v>
+        <v>39942</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>13368</v>
+        <v>13959</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>2740</v>
+        <v>2974</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>86115</v>
+        <v>87722</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>40208</v>
+        <v>40937</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>18355</v>
+        <v>17247</v>
       </c>
     </row>
     <row r="7">
@@ -1324,31 +1324,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>64769</v>
+        <v>66014</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>43699</v>
+        <v>43995</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>28560</v>
+        <v>27586</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>62379</v>
+        <v>61344</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>29372</v>
+        <v>29405</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>9852</v>
+        <v>10162</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>120462</v>
+        <v>121453</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>65509</v>
+        <v>66527</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>35782</v>
+        <v>35868</v>
       </c>
     </row>
     <row r="8">
@@ -1433,31 +1433,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>183150</v>
+        <v>184616</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>178396</v>
+        <v>182574</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>72081</v>
+        <v>70773</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>103773</v>
+        <v>104919</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>120675</v>
+        <v>120993</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>53134</v>
+        <v>52548</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>299892</v>
+        <v>304856</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>316097</v>
+        <v>314811</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>132060</v>
+        <v>131475</v>
       </c>
     </row>
     <row r="11">
@@ -1468,31 +1468,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>237837</v>
+        <v>239894</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>231364</v>
+        <v>232111</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>107794</v>
+        <v>108324</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>143687</v>
+        <v>143833</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>164945</v>
+        <v>163577</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>77950</v>
+        <v>77828</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>369162</v>
+        <v>370743</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>380956</v>
+        <v>386014</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>176827</v>
+        <v>177632</v>
       </c>
     </row>
     <row r="12">
@@ -1577,31 +1577,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>35949</v>
+        <v>36289</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>64454</v>
+        <v>62809</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>34131</v>
+        <v>35183</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>30577</v>
+        <v>31989</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>59589</v>
+        <v>60206</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>36375</v>
+        <v>35822</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>73731</v>
+        <v>74694</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>130666</v>
+        <v>131208</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>74794</v>
+        <v>75257</v>
       </c>
     </row>
     <row r="15">
@@ -1612,31 +1612,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>63705</v>
+        <v>65179</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>95824</v>
+        <v>96234</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>59083</v>
+        <v>60142</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>57688</v>
+        <v>57126</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>89153</v>
+        <v>90126</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>55816</v>
+        <v>55386</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>111789</v>
+        <v>110641</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>174836</v>
+        <v>178940</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>107980</v>
+        <v>107733</v>
       </c>
     </row>
     <row r="16">
@@ -1721,31 +1721,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>283671</v>
+        <v>279705</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>287991</v>
+        <v>286913</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>131038</v>
+        <v>131267</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>193586</v>
+        <v>193564</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>207134</v>
+        <v>210608</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>98600</v>
+        <v>98302</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>491255</v>
+        <v>489518</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>513041</v>
+        <v>511857</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>237767</v>
+        <v>241763</v>
       </c>
     </row>
     <row r="19">
@@ -1756,31 +1756,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>349309</v>
+        <v>345082</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>351910</v>
+        <v>352575</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>178253</v>
+        <v>177966</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>243161</v>
+        <v>243061</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>260344</v>
+        <v>264795</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>132247</v>
+        <v>131464</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>574556</v>
+        <v>572193</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>598491</v>
+        <v>599237</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>300531</v>
+        <v>299010</v>
       </c>
     </row>
     <row r="20">
